--- a/Example Data.xlsx
+++ b/Example Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\PillsCounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA66A8FF-E132-49BE-B9A1-ADBD608B481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC62F81-0D9B-4FEB-8D14-42C1EDE37CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76536726-2FB6-4D03-B89E-D04B14893037}"/>
   </bookViews>
@@ -118,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +474,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,6 +515,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" s="2">
+        <v>45997</v>
+      </c>
       <c r="E2" s="1" t="b">
         <v>1</v>
       </c>
@@ -528,6 +532,9 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" s="2">
+        <v>45997</v>
+      </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
@@ -542,6 +549,9 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" s="2">
+        <v>45995</v>
+      </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
@@ -558,6 +568,9 @@
       </c>
       <c r="C5">
         <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45996</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
